--- a/data/Hasil/2020/hasil_apriori_cleaned_2020.xlsx
+++ b/data/Hasil/2020/hasil_apriori_cleaned_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\baruu pindah\coolyeah\kuliah\Semester 7\Business Intellegance\Project_UAS\Apriori\data\Hasil\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2870C50B-A164-48B2-B4CE-42FDD60108D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238B8B4-3AF2-4DA2-A7A1-354B1842E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,19 +219,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -254,27 +248,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -292,19 +271,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,505 +601,508 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.02</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.01</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.02</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.01</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="A4" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.01</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="A6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.01</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="A7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.01</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="A8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.01</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="A9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.03</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="A10" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.01</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="A11" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.02</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>0.03</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.03</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.02</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>0.03</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.02</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>0.03</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.03</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.02</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.01</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>0.03</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.04</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.01</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
+        <v>0.03</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.01</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>0.02</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.04</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>0.02</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.02</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.01</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
+        <v>0.02</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.02</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
+      <c r="B25" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.01</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
+        <v>0.02</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.02</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
+        <v>0.02</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.08</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
+        <v>0.02</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.04</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
+        <v>0.02</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.01</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
+        <v>0.02</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.03</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
+        <v>0.02</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.02</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.02</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B34" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.01</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
+        <v>0.02</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.02</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
+      <c r="B36" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.02</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
+      <c r="B37" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.03</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
+        <v>0.01</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.01</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
+      <c r="B39" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.01</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
+      <c r="B40" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.03</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
+        <v>0.01</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.01</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B42" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.02</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
+        <v>0.01</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.06</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
+        <v>0.01</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.01</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
+      <c r="B45" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.03</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
+        <v>0.01</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.03</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
+        <v>0.01</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.03</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
+        <v>0.01</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.03</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
+        <v>0.01</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.01</v>
       </c>
-      <c r="B50" t="s">
-        <v>50</v>
+      <c r="B50" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.03</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
+        <v>0.01</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.01</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
+      <c r="B52" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.01</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
+      <c r="B53" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.05</v>
-      </c>
-      <c r="B54" t="s">
-        <v>54</v>
+        <v>0.01</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.02</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
+        <v>0.01</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.02</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
+        <v>0.01</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.01</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
+      <c r="B57" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.01</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="B58" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.01</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
+      <c r="B59" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.02</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.03</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
+        <v>0.01</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition descending="1" ref="A1:A61"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1128,162 +1122,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>0.04</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
